--- a/biology/Biochimie/Sel_minéral/Sel_minéral.xlsx
+++ b/biology/Biochimie/Sel_minéral/Sel_minéral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sel_min%C3%A9ral</t>
+          <t>Sel_minéral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article évoque les sels minéraux en nutrition ou de façon plus juste, les ions minéraux dans le monde vivant. Les ions minéraux s'opposent aux ions organiques, ces derniers contenant du carbone (à l'exception des carbonates CO32-et hydrogénocarbonates HCO3-). Exemple d'ion organique : l'acétate ou éthanoate CH3-COO-, pouvant être trouvé sous forme, à l'état solide, d'acétate de sodium CH3-COO-,Na+.
 Les ions minéraux sont des substances chimiques ionisées, cations ou anions, qui entrent dans la composition des organismes et qui sont présents dans l'alimentation des êtres vivants (animaux, végétaux, champignons, bactéries , archées et à la limite virus). Ce sont par exemple Ca2+ pour le calcium et Cl− pour le chlore. Ces ions ont de nombreux rôles dans les organismes vivants et sont indispensables à des concentrations très variables. Aucun métal (réducteur) n'est présent chez les êtres vivants : l'élément métallique est toujours un ion (oxydant).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sel_min%C3%A9ral</t>
+          <t>Sel_minéral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste des ions minéraux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ions minéraux majeurs, ou macro-éléments, par ordre alphabétique :
 ammonium (NH4+)
@@ -551,7 +565,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sel_min%C3%A9ral</t>
+          <t>Sel_minéral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +583,9 @@
           <t>Rôles des ions minéraux chez les animaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les ions minéraux ont des rôles variés dans l'organisme animal :
 équilibre électrique de la cellule : c'est le cas des ions sodium, potassium et calcium. Ils interviennent dans le fonctionnement des neurones. Le Ca2+ est une molécule de signalisation cellulaire.
@@ -585,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sel_min%C3%A9ral</t>
+          <t>Sel_minéral</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -603,7 +619,9 @@
           <t>Formes des ions minéraux dans les aliments</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les aliments étant constitués d'êtres vivants ou de parties d'êtres vivants, apportent lors de leur consommation les ions minéraux qu'ils contiennent. Le consommateur peut ajouter du chlorure de sodium (sel de cuisine), du glutamate de sodium…
 L'eau, que l'on peut ou non considérer comme aliment, apporte des ions minéraux qui dépendent très fortement de son origine, certaines étant très minéralisées (Vichy), d'autres très peu (Volvic- Évian).
